--- a/poller/src/main/resources/results/ResultsSummary.xlsx
+++ b/poller/src/main/resources/results/ResultsSummary.xlsx
@@ -8,33 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sro01/Documents/002_PersonalCode/004_UniDissertation/kafka-mongo-comparison/poller/src/main/resources/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2E69F06A-AB24-EE48-98A1-D711D55F5CCF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FBC8EB93-7AD0-B54B-BA98-894C4A1C3F05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="mongoDb" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">mongoDb!$Q$3:$Q$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">mongoDb!$S$3:$S$7</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">mongoDb!$Q$3:$Q$7</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">mongoDb!$S$3:$S$7</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">mongoDb!$A$3:$A$102</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">mongoDb!$D$3:$D$102</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">mongoDb!$Q$3:$Q$7</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">mongoDb!$S$3:$S$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">mongoDb!$B$3:$B$102</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">mongoDb!$N$3:$N$102</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">mongoDb!$R$3:$R$7</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">mongoDb!$T$3:$T$7</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">mongoDb!$Q$3:$Q$7</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">mongoDb!$S$3:$S$7</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">mongoDb!$A$3:$A$102</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">mongoDb!$D$3:$D$102</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Summary!$B$3:$B$102</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Summary!$N$3:$N$102</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Summary!$A$3:$A$102</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Summary!$D$3:$D$102</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -53,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="30" uniqueCount="20">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="25" uniqueCount="17">
   <si>
     <t>Kafka Stream Results</t>
   </si>
@@ -88,16 +75,7 @@
     <t>Kafka Streams</t>
   </si>
   <si>
-    <t>Write</t>
-  </si>
-  <si>
-    <t>Read</t>
-  </si>
-  <si>
     <t>MongoDB</t>
-  </si>
-  <si>
-    <t>Diff</t>
   </si>
   <si>
     <t>Statistic</t>
@@ -672,1549 +650,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65%"/>
-                  <a:lumOff val="35%"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Kafka Streams</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>mongoDb!$H$3:$H$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>mongoDb!$I$3:$I$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>8.4029999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.2920000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.3130000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.5029999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.1470000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.1979999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.4710000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.455E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.6459999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.9179999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.4400000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.7179999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.6499999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.13164999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.3559999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.5000000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.9480000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.5620000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.3299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.5629999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.634E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8.3180000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8.3460000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8.5559999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.0369999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8.6959999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>8.4680000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8.831E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8.0799999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9.5579999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8.0879999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.5029999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.3739999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.8260000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.3559999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.9499999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8.4080000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8.4650000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7.9930000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>9.2119999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>8.3089999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>9.1340000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>8.3349999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>8.14E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>8.7919999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>9.8350000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>8.7160000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>8.2860000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>8.4459999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9.2020000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>8.5290000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>8.5620000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>8.6889999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>8.2769999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>8.6860000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>8.1350000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8.0930000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>9.0620000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>8.8429999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>8.165E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>8.9120000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>8.4019999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>8.2860000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>8.1079999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>8.695E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>8.2379999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>7.9409999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>8.3169999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>8.2729999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>8.3150000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>8.541E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.10113999999999999</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>8.7859999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>8.0399999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>8.5000000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>8.5199999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>8.7940000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>8.1670000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>8.5260000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>8.1439999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>9.1859999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>8.6669999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>8.1220000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>8.5190000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>8.5739999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>8.3049999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>8.6919999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>8.5279999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>8.2699999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>8.2000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>8.6029999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>8.5930000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>8.3599999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>8.4019999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>8.5889999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>9.2829999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>8.4440000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>8.1720000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>8.1610000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>8.3220000000000002E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E3A7-E14D-9CF3-2FBD7967DD10}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>MongoDB</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>mongoDb!$H$3:$H$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>mongoDb!$J$3:$J$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>1.96218</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.89432</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.87375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9144699999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.9253100000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.85883</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.8462499999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.9441299999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.9495400000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.00929</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.00502</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.0325700000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.24966</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.0228899999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.9219599999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.0085299999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.0589900000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.07233</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.0210699999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.01919</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.96593</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.9747600000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.97915</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.9938800000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.98282</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.0241899999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.0308700000000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.97817</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.0132500000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.0137299999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.94591</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.97298</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.1154700000000002</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.0570300000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.99824</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.98698</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.97987</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2.0191599999999998</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.9352799999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.9719199999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.0924200000000002</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.1086399999999998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.9875499999999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.0184099999999998</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.9716499999999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2.0053399999999999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.97668</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.9809300000000001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2.0047899999999998</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.0262500000000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.97865</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2.0078399999999998</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2.02433</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.95102</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.95824</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2.01111</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.9859500000000001</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.95648</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.0045099999999998</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.04704</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.92161</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2.0100500000000001</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2.0862699999999998</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2.0386199999999999</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.9744699999999999</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2.0372599999999998</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2.0368900000000001</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.94279</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2.0341300000000002</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2.13856</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2.00284</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2.05985</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.0081000000000002</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2.05281</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2.1072500000000001</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2.01397</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2.0649999999999999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2.0074999999999998</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2.12812</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2.15056</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.0722200000000002</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.1160999999999999</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.0520299999999998</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.0545499999999999</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2.05633</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.0647899999999999</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.1171700000000002</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.1076000000000001</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2.1312899999999999</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2.0987300000000002</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2.0298699999999998</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2.06569</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2.1240299999999999</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.0493199999999998</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2.0907300000000002</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2.1105</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2.0745499999999999</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2.0539000000000001</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.0656099999999999</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2.1297000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E3A7-E14D-9CF3-2FBD7967DD10}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="934031536"/>
-        <c:axId val="934033216"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="934031536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15%"/>
-                  <a:lumOff val="85%"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25%"/>
-                <a:lumOff val="75%"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65%"/>
-                    <a:lumOff val="35%"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="934033216"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="934033216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15%"/>
-                  <a:lumOff val="85%"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25%"/>
-                <a:lumOff val="75%"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65%"/>
-                    <a:lumOff val="35%"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="934031536"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15%"/>
-          <a:lumOff val="85%"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -2306,7 +741,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>mongoDb!$I$3:$I$102</c:f>
+              <c:f>Summary!$I$3:$I$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -2933,7 +1368,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -3037,7 +1472,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>mongoDb!$J$3:$J$102</c:f>
+              <c:f>Summary!$J$3:$J$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -3650,7 +2085,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -3756,7 +2191,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>mongoDb!$M$3:$M$102</c:f>
+              <c:f>Summary!$M$3:$M$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -4383,7 +2818,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -4487,7 +2922,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>mongoDb!$N$3:$N$102</c:f>
+              <c:f>Summary!$N$3:$N$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -5113,12 +3548,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5242,12 +3677,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5606,46 +4041,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60%"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80%"/>
-    <a:lumOff val="20%"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80%"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60%"/>
-    <a:lumOff val="40%"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50%"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70%"/>
-    <a:lumOff val="30%"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70%"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50%"/>
-    <a:lumOff val="50%"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="406">
   <cs:axisTitle>
@@ -8226,522 +6621,6 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25%"/>
-            <a:lumOff val="75%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75%"/>
-        <a:lumOff val="25%"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25%"/>
-            <a:lumOff val="75%"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75%"/>
-          <a:lumOff val="25%"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65%"/>
-            <a:lumOff val="35%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35%"/>
-            <a:lumOff val="65%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65%"/>
-            <a:lumOff val="35%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15%"/>
-            <a:lumOff val="85%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5%"/>
-            <a:lumOff val="95%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50%"/>
-            <a:lumOff val="50%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35%"/>
-            <a:lumOff val="65%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35%"/>
-            <a:lumOff val="65%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65%"/>
-            <a:lumOff val="35%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65%"/>
-        <a:lumOff val="35%"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25%"/>
-            <a:lumOff val="75%"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9305,8 +7184,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="18764250" y="2002065"/>
-              <a:ext cx="4710188" cy="2923116"/>
+              <a:off x="18681398" y="2068589"/>
+              <a:ext cx="4722888" cy="3022902"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9338,23 +7217,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>795867</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>1752600</xdr:colOff>
+      <xdr:colOff>1515534</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F2ACFA-C44F-2A4F-AD32-F5A61AA046E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B562213-2059-A24E-9F68-C3A748A8E238}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9376,23 +7255,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>2353734</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>1752600</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1833034</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B562213-2059-A24E-9F68-C3A748A8E238}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E543A03-229D-A546-8B0A-D16F60DDAA60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9414,23 +7293,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>795867</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>2070100</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1515534</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
+        <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E543A03-229D-A546-8B0A-D16F60DDAA60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{477EFBC3-3534-7C4D-B159-ADB370910426}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9452,54 +7331,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>1752600</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{477EFBC3-3534-7C4D-B159-ADB370910426}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
-          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>2463800</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>2226734</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>1943100</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>1706034</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9520,7 +7361,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
-          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9558,7 +7399,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId7"/>
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId6"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -9573,8 +7414,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12750800" y="2111935"/>
-              <a:ext cx="5403476" cy="3049867"/>
+              <a:off x="12806829" y="2089523"/>
+              <a:ext cx="5404223" cy="3016250"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9918,10 +7759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE102"/>
+  <dimension ref="A1:T102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9933,7 +7774,7 @@
     <col min="20" max="20" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9950,13 +7791,10 @@
         <v>10</v>
       </c>
       <c r="S1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9973,43 +7811,31 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M2" t="s">
         <v>10</v>
       </c>
       <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W2" t="s">
-        <v>12</v>
-      </c>
-      <c r="X2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>8.4029999999999994E-2</v>
       </c>
@@ -10063,37 +7889,8 @@
         <f>QUARTILE($E$3:$E$102,0)</f>
         <v>1586</v>
       </c>
-      <c r="V3">
-        <f>Q3</f>
-        <v>7.9409999999999994E-2</v>
-      </c>
-      <c r="W3">
-        <f t="shared" ref="W3:Y3" si="0">R3</f>
-        <v>269</v>
-      </c>
-      <c r="X3">
-        <f t="shared" si="0"/>
-        <v>1.8462499999999999</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" si="0"/>
-        <v>1586</v>
-      </c>
-      <c r="AA3">
-        <v>1</v>
-      </c>
-      <c r="AB3">
-        <v>0.13164999999999999</v>
-      </c>
-      <c r="AD3">
-        <v>25</v>
-      </c>
-      <c r="AE3">
-        <f>INDEX($AB$3:$AB$102,MATCH(AD3,$AA$3:$AA$102,0))</f>
-        <v>8.7160000000000001E-2</v>
-      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>9.2920000000000003E-2</v>
       </c>
@@ -10110,22 +7907,22 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I67" si="1">A4</f>
+        <f t="shared" ref="I4:I67" si="0">A4</f>
         <v>9.2920000000000003E-2</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J67" si="2">D4</f>
+        <f t="shared" ref="J4:J67" si="1">D4</f>
         <v>1.89432</v>
       </c>
       <c r="L4">
         <v>2</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M67" si="3">B4</f>
+        <f t="shared" ref="M4:M67" si="2">B4</f>
         <v>300</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N67" si="4">E4</f>
+        <f t="shared" ref="N4:N67" si="3">E4</f>
         <v>1617</v>
       </c>
       <c r="P4" t="s">
@@ -10147,37 +7944,8 @@
         <f>QUARTILE($E$3:$E$102,1)</f>
         <v>1694.75</v>
       </c>
-      <c r="V4">
-        <f>Q4-Q3</f>
-        <v>3.5925000000000124E-3</v>
-      </c>
-      <c r="W4">
-        <f t="shared" ref="W4:X4" si="5">R4-R3</f>
-        <v>21</v>
-      </c>
-      <c r="X4">
-        <f t="shared" si="5"/>
-        <v>0.13228000000000018</v>
-      </c>
-      <c r="Y4">
-        <f>T4-T3</f>
-        <v>108.75</v>
-      </c>
-      <c r="AA4">
-        <v>2</v>
-      </c>
-      <c r="AB4">
-        <v>0.10113999999999999</v>
-      </c>
-      <c r="AD4">
-        <v>50</v>
-      </c>
-      <c r="AE4">
-        <f>INDEX($AB$3:$AB$102,MATCH(AD4,$AA$3:$AA$102,0))</f>
-        <v>8.5029999999999994E-2</v>
-      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>9.3130000000000004E-2</v>
       </c>
@@ -10194,22 +7962,22 @@
         <v>3</v>
       </c>
       <c r="I5">
+        <f t="shared" si="0"/>
+        <v>9.3130000000000004E-2</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="1"/>
-        <v>9.3130000000000004E-2</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="2"/>
         <v>1.87375</v>
       </c>
       <c r="L5">
         <v>3</v>
       </c>
       <c r="M5">
+        <f t="shared" si="2"/>
+        <v>338</v>
+      </c>
+      <c r="N5">
         <f t="shared" si="3"/>
-        <v>338</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="4"/>
         <v>1799</v>
       </c>
       <c r="P5" t="s">
@@ -10231,37 +7999,8 @@
         <f>QUARTILE($E$3:$E$102,2)</f>
         <v>1740</v>
       </c>
-      <c r="V5">
-        <f t="shared" ref="V5:V6" si="6">Q5-Q4</f>
-        <v>2.0125000000000004E-3</v>
-      </c>
-      <c r="W5">
-        <f t="shared" ref="W5:W7" si="7">R5-R4</f>
-        <v>9</v>
-      </c>
-      <c r="X5">
-        <f t="shared" ref="X5:X7" si="8">S5-S4</f>
-        <v>3.7659999999999805E-2</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" ref="Y5:Y7" si="9">T5-T4</f>
-        <v>45.25</v>
-      </c>
-      <c r="AA5">
-        <v>3</v>
-      </c>
-      <c r="AB5">
-        <v>9.8350000000000007E-2</v>
-      </c>
-      <c r="AD5">
-        <v>75</v>
-      </c>
-      <c r="AE5">
-        <f>INDEX($AB$3:$AB$102,MATCH(AD5,$AA$3:$AA$102,0))</f>
-        <v>8.3049999999999999E-2</v>
-      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8.5029999999999994E-2</v>
       </c>
@@ -10278,22 +8017,22 @@
         <v>4</v>
       </c>
       <c r="I6">
+        <f t="shared" si="0"/>
+        <v>8.5029999999999994E-2</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="1"/>
-        <v>8.5029999999999994E-2</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="2"/>
         <v>1.9144699999999999</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="M6">
+        <f t="shared" si="2"/>
+        <v>310</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="3"/>
-        <v>310</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="4"/>
         <v>1685</v>
       </c>
       <c r="P6" t="s">
@@ -10315,30 +8054,8 @@
         <f>QUARTILE($E$3:$E$102,3)</f>
         <v>1799</v>
       </c>
-      <c r="V6">
-        <f t="shared" si="6"/>
-        <v>1.9949999999999968E-3</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="7"/>
-        <v>15.25</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="8"/>
-        <v>4.4894999999999907E-2</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="9"/>
-        <v>59</v>
-      </c>
-      <c r="AA6">
-        <v>4</v>
-      </c>
-      <c r="AB6">
-        <v>9.5579999999999998E-2</v>
-      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>8.1470000000000001E-2</v>
       </c>
@@ -10355,22 +8072,22 @@
         <v>5</v>
       </c>
       <c r="I7">
+        <f t="shared" si="0"/>
+        <v>8.1470000000000001E-2</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="1"/>
-        <v>8.1470000000000001E-2</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="2"/>
         <v>1.9253100000000001</v>
       </c>
       <c r="L7">
         <v>5</v>
       </c>
       <c r="M7">
+        <f t="shared" si="2"/>
+        <v>342</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="3"/>
-        <v>342</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="4"/>
         <v>1586</v>
       </c>
       <c r="P7" t="s">
@@ -10392,30 +8109,8 @@
         <f>QUARTILE($E$3:$E$102,4)</f>
         <v>2330</v>
       </c>
-      <c r="V7">
-        <f>Q7-Q6</f>
-        <v>4.4639999999999985E-2</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="7"/>
-        <v>44.75</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="8"/>
-        <v>0.18857500000000016</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="9"/>
-        <v>531</v>
-      </c>
-      <c r="AA7">
-        <v>5</v>
-      </c>
-      <c r="AB7">
-        <v>9.4710000000000003E-2</v>
-      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8.1979999999999997E-2</v>
       </c>
@@ -10432,32 +8127,26 @@
         <v>6</v>
       </c>
       <c r="I8">
+        <f t="shared" si="0"/>
+        <v>8.1979999999999997E-2</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="1"/>
-        <v>8.1979999999999997E-2</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="2"/>
         <v>1.85883</v>
       </c>
       <c r="L8">
         <v>6</v>
       </c>
       <c r="M8">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="3"/>
-        <v>320</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="4"/>
         <v>1714</v>
       </c>
-      <c r="AA8">
-        <v>6</v>
-      </c>
-      <c r="AB8">
-        <v>9.3130000000000004E-2</v>
-      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9.4710000000000003E-2</v>
       </c>
@@ -10474,35 +8163,29 @@
         <v>7</v>
       </c>
       <c r="I9">
+        <f t="shared" si="0"/>
+        <v>9.4710000000000003E-2</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="1"/>
-        <v>9.4710000000000003E-2</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="2"/>
         <v>1.8462499999999999</v>
       </c>
       <c r="L9">
         <v>7</v>
       </c>
       <c r="M9">
+        <f t="shared" si="2"/>
+        <v>297</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="3"/>
-        <v>297</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="4"/>
         <v>1692</v>
       </c>
       <c r="P9" t="s">
         <v>9</v>
       </c>
-      <c r="AA9">
-        <v>7</v>
-      </c>
-      <c r="AB9">
-        <v>9.2920000000000003E-2</v>
-      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8.455E-2</v>
       </c>
@@ -10519,32 +8202,26 @@
         <v>8</v>
       </c>
       <c r="I10">
+        <f t="shared" si="0"/>
+        <v>8.455E-2</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="1"/>
-        <v>8.455E-2</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="2"/>
         <v>1.9441299999999999</v>
       </c>
       <c r="L10">
         <v>8</v>
       </c>
       <c r="M10">
+        <f t="shared" si="2"/>
+        <v>275</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="3"/>
-        <v>275</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="4"/>
         <v>1636</v>
       </c>
-      <c r="AA10">
-        <v>8</v>
-      </c>
-      <c r="AB10">
-        <v>9.2829999999999996E-2</v>
-      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8.6459999999999995E-2</v>
       </c>
@@ -10561,32 +8238,26 @@
         <v>9</v>
       </c>
       <c r="I11">
+        <f t="shared" si="0"/>
+        <v>8.6459999999999995E-2</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="1"/>
-        <v>8.6459999999999995E-2</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="2"/>
         <v>1.9495400000000001</v>
       </c>
       <c r="L11">
         <v>9</v>
       </c>
       <c r="M11">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="3"/>
-        <v>280</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="4"/>
         <v>1922</v>
       </c>
-      <c r="AA11">
-        <v>9</v>
-      </c>
-      <c r="AB11">
-        <v>9.2119999999999994E-2</v>
-      </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8.9179999999999995E-2</v>
       </c>
@@ -10603,32 +8274,26 @@
         <v>10</v>
       </c>
       <c r="I12">
+        <f t="shared" si="0"/>
+        <v>8.9179999999999995E-2</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="1"/>
-        <v>8.9179999999999995E-2</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="2"/>
         <v>2.00929</v>
       </c>
       <c r="L12">
         <v>10</v>
       </c>
       <c r="M12">
+        <f t="shared" si="2"/>
+        <v>319</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="3"/>
-        <v>319</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="4"/>
         <v>1732</v>
       </c>
-      <c r="AA12">
-        <v>10</v>
-      </c>
-      <c r="AB12">
-        <v>9.2020000000000005E-2</v>
-      </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>8.4400000000000003E-2</v>
       </c>
@@ -10645,32 +8310,26 @@
         <v>11</v>
       </c>
       <c r="I13">
+        <f t="shared" si="0"/>
+        <v>8.4400000000000003E-2</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="1"/>
-        <v>8.4400000000000003E-2</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="2"/>
         <v>2.00502</v>
       </c>
       <c r="L13">
         <v>11</v>
       </c>
       <c r="M13">
+        <f t="shared" si="2"/>
+        <v>348</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="3"/>
-        <v>348</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="4"/>
         <v>1678</v>
       </c>
-      <c r="AA13">
-        <v>11</v>
-      </c>
-      <c r="AB13">
-        <v>9.1859999999999997E-2</v>
-      </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8.7179999999999994E-2</v>
       </c>
@@ -10687,32 +8346,26 @@
         <v>12</v>
       </c>
       <c r="I14">
+        <f t="shared" si="0"/>
+        <v>8.7179999999999994E-2</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="1"/>
-        <v>8.7179999999999994E-2</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="2"/>
         <v>2.0325700000000002</v>
       </c>
       <c r="L14">
         <v>12</v>
       </c>
       <c r="M14">
+        <f t="shared" si="2"/>
+        <v>330</v>
+      </c>
+      <c r="N14">
         <f t="shared" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="4"/>
         <v>1618</v>
       </c>
-      <c r="AA14">
-        <v>12</v>
-      </c>
-      <c r="AB14">
-        <v>9.1340000000000005E-2</v>
-      </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>8.6499999999999994E-2</v>
       </c>
@@ -10729,32 +8382,26 @@
         <v>13</v>
       </c>
       <c r="I15">
+        <f t="shared" si="0"/>
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="1"/>
-        <v>8.6499999999999994E-2</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="2"/>
         <v>2.24966</v>
       </c>
       <c r="L15">
         <v>13</v>
       </c>
       <c r="M15">
+        <f t="shared" si="2"/>
+        <v>299</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="3"/>
-        <v>299</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="4"/>
         <v>1839</v>
       </c>
-      <c r="AA15">
-        <v>13</v>
-      </c>
-      <c r="AB15">
-        <v>9.0620000000000006E-2</v>
-      </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.13164999999999999</v>
       </c>
@@ -10771,32 +8418,26 @@
         <v>14</v>
       </c>
       <c r="I16">
+        <f t="shared" si="0"/>
+        <v>0.13164999999999999</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="1"/>
-        <v>0.13164999999999999</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="2"/>
         <v>2.0228899999999999</v>
       </c>
       <c r="L16">
         <v>14</v>
       </c>
       <c r="M16">
+        <f t="shared" si="2"/>
+        <v>305</v>
+      </c>
+      <c r="N16">
         <f t="shared" si="3"/>
-        <v>305</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="4"/>
         <v>1830</v>
       </c>
-      <c r="AA16">
-        <v>14</v>
-      </c>
-      <c r="AB16">
-        <v>8.9499999999999996E-2</v>
-      </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8.3559999999999995E-2</v>
       </c>
@@ -10813,32 +8454,26 @@
         <v>15</v>
       </c>
       <c r="I17">
+        <f t="shared" si="0"/>
+        <v>8.3559999999999995E-2</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="1"/>
-        <v>8.3559999999999995E-2</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="2"/>
         <v>1.9219599999999999</v>
       </c>
       <c r="L17">
         <v>15</v>
       </c>
       <c r="M17">
+        <f t="shared" si="2"/>
+        <v>301</v>
+      </c>
+      <c r="N17">
         <f t="shared" si="3"/>
-        <v>301</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="4"/>
         <v>1714</v>
       </c>
-      <c r="AA17">
-        <v>15</v>
-      </c>
-      <c r="AB17">
-        <v>8.9480000000000004E-2</v>
-      </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>8.5000000000000006E-2</v>
       </c>
@@ -10855,32 +8490,26 @@
         <v>16</v>
       </c>
       <c r="I18">
+        <f t="shared" si="0"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="1"/>
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="2"/>
         <v>2.0085299999999999</v>
       </c>
       <c r="L18">
         <v>16</v>
       </c>
       <c r="M18">
+        <f t="shared" si="2"/>
+        <v>328</v>
+      </c>
+      <c r="N18">
         <f t="shared" si="3"/>
-        <v>328</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="4"/>
         <v>1723</v>
       </c>
-      <c r="AA18">
-        <v>16</v>
-      </c>
-      <c r="AB18">
-        <v>8.9179999999999995E-2</v>
-      </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>8.9480000000000004E-2</v>
       </c>
@@ -10897,32 +8526,26 @@
         <v>17</v>
       </c>
       <c r="I19">
+        <f t="shared" si="0"/>
+        <v>8.9480000000000004E-2</v>
+      </c>
+      <c r="J19">
         <f t="shared" si="1"/>
-        <v>8.9480000000000004E-2</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="2"/>
         <v>2.0589900000000001</v>
       </c>
       <c r="L19">
         <v>17</v>
       </c>
       <c r="M19">
+        <f t="shared" si="2"/>
+        <v>296</v>
+      </c>
+      <c r="N19">
         <f t="shared" si="3"/>
-        <v>296</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="4"/>
         <v>1694</v>
       </c>
-      <c r="AA19">
-        <v>17</v>
-      </c>
-      <c r="AB19">
-        <v>8.9120000000000005E-2</v>
-      </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>8.5620000000000002E-2</v>
       </c>
@@ -10939,32 +8562,26 @@
         <v>18</v>
       </c>
       <c r="I20">
+        <f t="shared" si="0"/>
+        <v>8.5620000000000002E-2</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="1"/>
-        <v>8.5620000000000002E-2</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="2"/>
         <v>2.07233</v>
       </c>
       <c r="L20">
         <v>18</v>
       </c>
       <c r="M20">
+        <f t="shared" si="2"/>
+        <v>328</v>
+      </c>
+      <c r="N20">
         <f t="shared" si="3"/>
-        <v>328</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="4"/>
         <v>1726</v>
       </c>
-      <c r="AA20">
-        <v>18</v>
-      </c>
-      <c r="AB20">
-        <v>8.8429999999999995E-2</v>
-      </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>8.3299999999999999E-2</v>
       </c>
@@ -10981,32 +8598,26 @@
         <v>19</v>
       </c>
       <c r="I21">
+        <f t="shared" si="0"/>
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="J21">
         <f t="shared" si="1"/>
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="2"/>
         <v>2.0210699999999999</v>
       </c>
       <c r="L21">
         <v>19</v>
       </c>
       <c r="M21">
+        <f t="shared" si="2"/>
+        <v>311</v>
+      </c>
+      <c r="N21">
         <f t="shared" si="3"/>
-        <v>311</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="4"/>
         <v>2330</v>
       </c>
-      <c r="AA21">
-        <v>19</v>
-      </c>
-      <c r="AB21">
-        <v>8.831E-2</v>
-      </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>8.5629999999999998E-2</v>
       </c>
@@ -11023,32 +8634,26 @@
         <v>20</v>
       </c>
       <c r="I22">
+        <f t="shared" si="0"/>
+        <v>8.5629999999999998E-2</v>
+      </c>
+      <c r="J22">
         <f t="shared" si="1"/>
-        <v>8.5629999999999998E-2</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="2"/>
         <v>2.01919</v>
       </c>
       <c r="L22">
         <v>20</v>
       </c>
       <c r="M22">
+        <f t="shared" si="2"/>
+        <v>319</v>
+      </c>
+      <c r="N22">
         <f t="shared" si="3"/>
-        <v>319</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="4"/>
         <v>1764</v>
       </c>
-      <c r="AA22">
-        <v>20</v>
-      </c>
-      <c r="AB22">
-        <v>8.8260000000000005E-2</v>
-      </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>8.634E-2</v>
       </c>
@@ -11065,32 +8670,26 @@
         <v>21</v>
       </c>
       <c r="I23">
+        <f t="shared" si="0"/>
+        <v>8.634E-2</v>
+      </c>
+      <c r="J23">
         <f t="shared" si="1"/>
-        <v>8.634E-2</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="2"/>
         <v>1.96593</v>
       </c>
       <c r="L23">
         <v>21</v>
       </c>
       <c r="M23">
+        <f t="shared" si="2"/>
+        <v>298</v>
+      </c>
+      <c r="N23">
         <f t="shared" si="3"/>
-        <v>298</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="4"/>
         <v>1735</v>
       </c>
-      <c r="AA23">
-        <v>21</v>
-      </c>
-      <c r="AB23">
-        <v>8.7940000000000004E-2</v>
-      </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>8.3180000000000004E-2</v>
       </c>
@@ -11107,32 +8706,26 @@
         <v>22</v>
       </c>
       <c r="I24">
+        <f t="shared" si="0"/>
+        <v>8.3180000000000004E-2</v>
+      </c>
+      <c r="J24">
         <f t="shared" si="1"/>
-        <v>8.3180000000000004E-2</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="2"/>
         <v>1.9747600000000001</v>
       </c>
       <c r="L24">
         <v>22</v>
       </c>
       <c r="M24">
+        <f t="shared" si="2"/>
+        <v>305</v>
+      </c>
+      <c r="N24">
         <f t="shared" si="3"/>
-        <v>305</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="4"/>
         <v>1718</v>
       </c>
-      <c r="AA24">
-        <v>22</v>
-      </c>
-      <c r="AB24">
-        <v>8.7919999999999998E-2</v>
-      </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>8.3460000000000006E-2</v>
       </c>
@@ -11149,32 +8742,26 @@
         <v>23</v>
       </c>
       <c r="I25">
+        <f t="shared" si="0"/>
+        <v>8.3460000000000006E-2</v>
+      </c>
+      <c r="J25">
         <f t="shared" si="1"/>
-        <v>8.3460000000000006E-2</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="2"/>
         <v>1.97915</v>
       </c>
       <c r="L25">
         <v>23</v>
       </c>
       <c r="M25">
+        <f t="shared" si="2"/>
+        <v>299</v>
+      </c>
+      <c r="N25">
         <f t="shared" si="3"/>
-        <v>299</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="4"/>
         <v>1799</v>
       </c>
-      <c r="AA25">
-        <v>23</v>
-      </c>
-      <c r="AB25">
-        <v>8.7859999999999994E-2</v>
-      </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>8.5559999999999997E-2</v>
       </c>
@@ -11191,32 +8778,26 @@
         <v>24</v>
       </c>
       <c r="I26">
+        <f t="shared" si="0"/>
+        <v>8.5559999999999997E-2</v>
+      </c>
+      <c r="J26">
         <f t="shared" si="1"/>
-        <v>8.5559999999999997E-2</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="2"/>
         <v>1.9938800000000001</v>
       </c>
       <c r="L26">
         <v>24</v>
       </c>
       <c r="M26">
+        <f t="shared" si="2"/>
+        <v>295</v>
+      </c>
+      <c r="N26">
         <f t="shared" si="3"/>
-        <v>295</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="4"/>
         <v>1799</v>
       </c>
-      <c r="AA26">
-        <v>24</v>
-      </c>
-      <c r="AB26">
-        <v>8.7179999999999994E-2</v>
-      </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>8.0369999999999997E-2</v>
       </c>
@@ -11233,32 +8814,26 @@
         <v>25</v>
       </c>
       <c r="I27">
+        <f t="shared" si="0"/>
+        <v>8.0369999999999997E-2</v>
+      </c>
+      <c r="J27">
         <f t="shared" si="1"/>
-        <v>8.0369999999999997E-2</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="2"/>
         <v>1.98282</v>
       </c>
       <c r="L27">
         <v>25</v>
       </c>
       <c r="M27">
+        <f t="shared" si="2"/>
+        <v>298</v>
+      </c>
+      <c r="N27">
         <f t="shared" si="3"/>
-        <v>298</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="4"/>
         <v>1655</v>
       </c>
-      <c r="AA27">
-        <v>25</v>
-      </c>
-      <c r="AB27">
-        <v>8.7160000000000001E-2</v>
-      </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>8.6959999999999996E-2</v>
       </c>
@@ -11275,32 +8850,26 @@
         <v>26</v>
       </c>
       <c r="I28">
+        <f t="shared" si="0"/>
+        <v>8.6959999999999996E-2</v>
+      </c>
+      <c r="J28">
         <f t="shared" si="1"/>
-        <v>8.6959999999999996E-2</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="2"/>
         <v>2.0241899999999999</v>
       </c>
       <c r="L28">
         <v>26</v>
       </c>
       <c r="M28">
+        <f t="shared" si="2"/>
+        <v>271</v>
+      </c>
+      <c r="N28">
         <f t="shared" si="3"/>
-        <v>271</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="4"/>
         <v>1777</v>
       </c>
-      <c r="AA28">
-        <v>26</v>
-      </c>
-      <c r="AB28">
-        <v>8.6959999999999996E-2</v>
-      </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>8.4680000000000005E-2</v>
       </c>
@@ -11317,32 +8886,26 @@
         <v>27</v>
       </c>
       <c r="I29">
+        <f t="shared" si="0"/>
+        <v>8.4680000000000005E-2</v>
+      </c>
+      <c r="J29">
         <f t="shared" si="1"/>
-        <v>8.4680000000000005E-2</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="2"/>
         <v>2.0308700000000002</v>
       </c>
       <c r="L29">
         <v>27</v>
       </c>
       <c r="M29">
+        <f t="shared" si="2"/>
+        <v>301</v>
+      </c>
+      <c r="N29">
         <f t="shared" si="3"/>
-        <v>301</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="4"/>
         <v>1724</v>
       </c>
-      <c r="AA29">
-        <v>27</v>
-      </c>
-      <c r="AB29">
-        <v>8.695E-2</v>
-      </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>8.831E-2</v>
       </c>
@@ -11359,32 +8922,26 @@
         <v>28</v>
       </c>
       <c r="I30">
+        <f t="shared" si="0"/>
+        <v>8.831E-2</v>
+      </c>
+      <c r="J30">
         <f t="shared" si="1"/>
-        <v>8.831E-2</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="2"/>
         <v>1.97817</v>
       </c>
       <c r="L30">
         <v>28</v>
       </c>
       <c r="M30">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+      <c r="N30">
         <f t="shared" si="3"/>
-        <v>290</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="4"/>
         <v>1679</v>
       </c>
-      <c r="AA30">
-        <v>28</v>
-      </c>
-      <c r="AB30">
-        <v>8.6919999999999997E-2</v>
-      </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>8.0799999999999997E-2</v>
       </c>
@@ -11401,32 +8958,26 @@
         <v>29</v>
       </c>
       <c r="I31">
+        <f t="shared" si="0"/>
+        <v>8.0799999999999997E-2</v>
+      </c>
+      <c r="J31">
         <f t="shared" si="1"/>
-        <v>8.0799999999999997E-2</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="2"/>
         <v>2.0132500000000002</v>
       </c>
       <c r="L31">
         <v>29</v>
       </c>
       <c r="M31">
+        <f t="shared" si="2"/>
+        <v>314</v>
+      </c>
+      <c r="N31">
         <f t="shared" si="3"/>
-        <v>314</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="4"/>
         <v>1715</v>
       </c>
-      <c r="AA31">
-        <v>29</v>
-      </c>
-      <c r="AB31">
-        <v>8.6889999999999995E-2</v>
-      </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>9.5579999999999998E-2</v>
       </c>
@@ -11443,32 +8994,26 @@
         <v>30</v>
       </c>
       <c r="I32">
+        <f t="shared" si="0"/>
+        <v>9.5579999999999998E-2</v>
+      </c>
+      <c r="J32">
         <f t="shared" si="1"/>
-        <v>9.5579999999999998E-2</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="2"/>
         <v>2.0137299999999998</v>
       </c>
       <c r="L32">
         <v>30</v>
       </c>
       <c r="M32">
+        <f t="shared" si="2"/>
+        <v>286</v>
+      </c>
+      <c r="N32">
         <f t="shared" si="3"/>
-        <v>286</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="4"/>
         <v>1849</v>
       </c>
-      <c r="AA32">
-        <v>30</v>
-      </c>
-      <c r="AB32">
-        <v>8.6860000000000007E-2</v>
-      </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>8.0879999999999994E-2</v>
       </c>
@@ -11485,32 +9030,26 @@
         <v>31</v>
       </c>
       <c r="I33">
+        <f t="shared" si="0"/>
+        <v>8.0879999999999994E-2</v>
+      </c>
+      <c r="J33">
         <f t="shared" si="1"/>
-        <v>8.0879999999999994E-2</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="2"/>
         <v>1.94591</v>
       </c>
       <c r="L33">
         <v>31</v>
       </c>
       <c r="M33">
+        <f t="shared" si="2"/>
+        <v>316</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="3"/>
-        <v>316</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="4"/>
         <v>1656</v>
       </c>
-      <c r="AA33">
-        <v>31</v>
-      </c>
-      <c r="AB33">
-        <v>8.6669999999999997E-2</v>
-      </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>8.5029999999999994E-2</v>
       </c>
@@ -11527,32 +9066,26 @@
         <v>32</v>
       </c>
       <c r="I34">
+        <f t="shared" si="0"/>
+        <v>8.5029999999999994E-2</v>
+      </c>
+      <c r="J34">
         <f t="shared" si="1"/>
-        <v>8.5029999999999994E-2</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="2"/>
         <v>1.97298</v>
       </c>
       <c r="L34">
         <v>32</v>
       </c>
       <c r="M34">
+        <f t="shared" si="2"/>
+        <v>292</v>
+      </c>
+      <c r="N34">
         <f t="shared" si="3"/>
-        <v>292</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="4"/>
         <v>1690</v>
       </c>
-      <c r="AA34">
-        <v>32</v>
-      </c>
-      <c r="AB34">
-        <v>8.6499999999999994E-2</v>
-      </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>8.3739999999999995E-2</v>
       </c>
@@ -11569,32 +9102,26 @@
         <v>33</v>
       </c>
       <c r="I35">
+        <f t="shared" si="0"/>
+        <v>8.3739999999999995E-2</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="1"/>
-        <v>8.3739999999999995E-2</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="2"/>
         <v>2.1154700000000002</v>
       </c>
       <c r="L35">
         <v>33</v>
       </c>
       <c r="M35">
+        <f t="shared" si="2"/>
+        <v>312</v>
+      </c>
+      <c r="N35">
         <f t="shared" si="3"/>
-        <v>312</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="4"/>
         <v>1845</v>
       </c>
-      <c r="AA35">
-        <v>33</v>
-      </c>
-      <c r="AB35">
-        <v>8.6459999999999995E-2</v>
-      </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>8.8260000000000005E-2</v>
       </c>
@@ -11611,32 +9138,26 @@
         <v>34</v>
       </c>
       <c r="I36">
+        <f t="shared" si="0"/>
+        <v>8.8260000000000005E-2</v>
+      </c>
+      <c r="J36">
         <f t="shared" si="1"/>
-        <v>8.8260000000000005E-2</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="2"/>
         <v>2.0570300000000001</v>
       </c>
       <c r="L36">
         <v>34</v>
       </c>
       <c r="M36">
+        <f t="shared" si="2"/>
+        <v>342</v>
+      </c>
+      <c r="N36">
         <f t="shared" si="3"/>
-        <v>342</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="4"/>
         <v>1742</v>
       </c>
-      <c r="AA36">
-        <v>34</v>
-      </c>
-      <c r="AB36">
-        <v>8.634E-2</v>
-      </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>8.3559999999999995E-2</v>
       </c>
@@ -11653,32 +9174,26 @@
         <v>35</v>
       </c>
       <c r="I37">
+        <f t="shared" si="0"/>
+        <v>8.3559999999999995E-2</v>
+      </c>
+      <c r="J37">
         <f t="shared" si="1"/>
-        <v>8.3559999999999995E-2</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="2"/>
         <v>1.99824</v>
       </c>
       <c r="L37">
         <v>35</v>
       </c>
       <c r="M37">
+        <f t="shared" si="2"/>
+        <v>285</v>
+      </c>
+      <c r="N37">
         <f t="shared" si="3"/>
-        <v>285</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="4"/>
         <v>1666</v>
       </c>
-      <c r="AA37">
-        <v>35</v>
-      </c>
-      <c r="AB37">
-        <v>8.6029999999999995E-2</v>
-      </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>8.9499999999999996E-2</v>
       </c>
@@ -11695,32 +9210,26 @@
         <v>36</v>
       </c>
       <c r="I38">
+        <f t="shared" si="0"/>
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="1"/>
-        <v>8.9499999999999996E-2</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="2"/>
         <v>1.98698</v>
       </c>
       <c r="L38">
         <v>36</v>
       </c>
       <c r="M38">
+        <f t="shared" si="2"/>
+        <v>299</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="3"/>
-        <v>299</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="4"/>
         <v>1695</v>
       </c>
-      <c r="AA38">
-        <v>36</v>
-      </c>
-      <c r="AB38">
-        <v>8.5930000000000006E-2</v>
-      </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>8.4080000000000002E-2</v>
       </c>
@@ -11737,32 +9246,26 @@
         <v>37</v>
       </c>
       <c r="I39">
+        <f t="shared" si="0"/>
+        <v>8.4080000000000002E-2</v>
+      </c>
+      <c r="J39">
         <f t="shared" si="1"/>
-        <v>8.4080000000000002E-2</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="2"/>
         <v>1.97987</v>
       </c>
       <c r="L39">
         <v>37</v>
       </c>
       <c r="M39">
+        <f t="shared" si="2"/>
+        <v>319</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="3"/>
-        <v>319</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="4"/>
         <v>1713</v>
       </c>
-      <c r="AA39">
-        <v>37</v>
-      </c>
-      <c r="AB39">
-        <v>8.5889999999999994E-2</v>
-      </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>8.4650000000000003E-2</v>
       </c>
@@ -11779,32 +9282,26 @@
         <v>38</v>
       </c>
       <c r="I40">
+        <f t="shared" si="0"/>
+        <v>8.4650000000000003E-2</v>
+      </c>
+      <c r="J40">
         <f t="shared" si="1"/>
-        <v>8.4650000000000003E-2</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="2"/>
         <v>2.0191599999999998</v>
       </c>
       <c r="L40">
         <v>38</v>
       </c>
       <c r="M40">
+        <f t="shared" si="2"/>
+        <v>288</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="3"/>
-        <v>288</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="4"/>
         <v>1732</v>
       </c>
-      <c r="AA40">
-        <v>38</v>
-      </c>
-      <c r="AB40">
-        <v>8.5739999999999997E-2</v>
-      </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>7.9930000000000001E-2</v>
       </c>
@@ -11821,32 +9318,26 @@
         <v>39</v>
       </c>
       <c r="I41">
+        <f t="shared" si="0"/>
+        <v>7.9930000000000001E-2</v>
+      </c>
+      <c r="J41">
         <f t="shared" si="1"/>
-        <v>7.9930000000000001E-2</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="2"/>
         <v>1.9352799999999999</v>
       </c>
       <c r="L41">
         <v>39</v>
       </c>
       <c r="M41">
+        <f t="shared" si="2"/>
+        <v>322</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="3"/>
-        <v>322</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="4"/>
         <v>1811</v>
       </c>
-      <c r="AA41">
-        <v>39</v>
-      </c>
-      <c r="AB41">
-        <v>8.5629999999999998E-2</v>
-      </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>9.2119999999999994E-2</v>
       </c>
@@ -11863,32 +9354,26 @@
         <v>40</v>
       </c>
       <c r="I42">
+        <f t="shared" si="0"/>
+        <v>9.2119999999999994E-2</v>
+      </c>
+      <c r="J42">
         <f t="shared" si="1"/>
-        <v>9.2119999999999994E-2</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="2"/>
         <v>1.9719199999999999</v>
       </c>
       <c r="L42">
         <v>40</v>
       </c>
       <c r="M42">
+        <f t="shared" si="2"/>
+        <v>295</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="3"/>
-        <v>295</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="4"/>
         <v>1776</v>
       </c>
-      <c r="AA42">
-        <v>40</v>
-      </c>
-      <c r="AB42">
-        <v>8.5620000000000002E-2</v>
-      </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>8.3089999999999997E-2</v>
       </c>
@@ -11905,32 +9390,26 @@
         <v>41</v>
       </c>
       <c r="I43">
+        <f t="shared" si="0"/>
+        <v>8.3089999999999997E-2</v>
+      </c>
+      <c r="J43">
         <f t="shared" si="1"/>
-        <v>8.3089999999999997E-2</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="2"/>
         <v>2.0924200000000002</v>
       </c>
       <c r="L43">
         <v>41</v>
       </c>
       <c r="M43">
+        <f t="shared" si="2"/>
+        <v>299</v>
+      </c>
+      <c r="N43">
         <f t="shared" si="3"/>
-        <v>299</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="4"/>
         <v>1750</v>
       </c>
-      <c r="AA43">
-        <v>41</v>
-      </c>
-      <c r="AB43">
-        <v>8.5620000000000002E-2</v>
-      </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>9.1340000000000005E-2</v>
       </c>
@@ -11947,32 +9426,26 @@
         <v>42</v>
       </c>
       <c r="I44">
+        <f t="shared" si="0"/>
+        <v>9.1340000000000005E-2</v>
+      </c>
+      <c r="J44">
         <f t="shared" si="1"/>
-        <v>9.1340000000000005E-2</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="2"/>
         <v>2.1086399999999998</v>
       </c>
       <c r="L44">
         <v>42</v>
       </c>
       <c r="M44">
+        <f t="shared" si="2"/>
+        <v>288</v>
+      </c>
+      <c r="N44">
         <f t="shared" si="3"/>
-        <v>288</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="4"/>
         <v>1726</v>
       </c>
-      <c r="AA44">
-        <v>42</v>
-      </c>
-      <c r="AB44">
-        <v>8.5559999999999997E-2</v>
-      </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>8.3349999999999994E-2</v>
       </c>
@@ -11989,32 +9462,26 @@
         <v>43</v>
       </c>
       <c r="I45">
+        <f t="shared" si="0"/>
+        <v>8.3349999999999994E-2</v>
+      </c>
+      <c r="J45">
         <f t="shared" si="1"/>
-        <v>8.3349999999999994E-2</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="2"/>
         <v>1.9875499999999999</v>
       </c>
       <c r="L45">
         <v>43</v>
       </c>
       <c r="M45">
+        <f t="shared" si="2"/>
+        <v>283</v>
+      </c>
+      <c r="N45">
         <f t="shared" si="3"/>
-        <v>283</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="4"/>
         <v>1732</v>
       </c>
-      <c r="AA45">
-        <v>43</v>
-      </c>
-      <c r="AB45">
-        <v>8.541E-2</v>
-      </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>8.14E-2</v>
       </c>
@@ -12031,32 +9498,26 @@
         <v>44</v>
       </c>
       <c r="I46">
+        <f t="shared" si="0"/>
+        <v>8.14E-2</v>
+      </c>
+      <c r="J46">
         <f t="shared" si="1"/>
-        <v>8.14E-2</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="2"/>
         <v>2.0184099999999998</v>
       </c>
       <c r="L46">
         <v>44</v>
       </c>
       <c r="M46">
+        <f t="shared" si="2"/>
+        <v>302</v>
+      </c>
+      <c r="N46">
         <f t="shared" si="3"/>
-        <v>302</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="4"/>
         <v>1742</v>
       </c>
-      <c r="AA46">
-        <v>44</v>
-      </c>
-      <c r="AB46">
-        <v>8.5290000000000005E-2</v>
-      </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>8.7919999999999998E-2</v>
       </c>
@@ -12073,33 +9534,27 @@
         <v>45</v>
       </c>
       <c r="I47">
+        <f t="shared" si="0"/>
+        <v>8.7919999999999998E-2</v>
+      </c>
+      <c r="J47">
         <f t="shared" si="1"/>
-        <v>8.7919999999999998E-2</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="2"/>
         <v>1.9716499999999999</v>
       </c>
       <c r="L47">
         <v>45</v>
       </c>
       <c r="M47">
+        <f t="shared" si="2"/>
+        <v>297</v>
+      </c>
+      <c r="N47">
         <f t="shared" si="3"/>
-        <v>297</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="4"/>
         <v>1708</v>
       </c>
       <c r="S47" s="1"/>
-      <c r="AA47">
-        <v>45</v>
-      </c>
-      <c r="AB47">
-        <v>8.5279999999999995E-2</v>
-      </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>9.8350000000000007E-2</v>
       </c>
@@ -12116,32 +9571,26 @@
         <v>46</v>
       </c>
       <c r="I48">
+        <f t="shared" si="0"/>
+        <v>9.8350000000000007E-2</v>
+      </c>
+      <c r="J48">
         <f t="shared" si="1"/>
-        <v>9.8350000000000007E-2</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="2"/>
         <v>2.0053399999999999</v>
       </c>
       <c r="L48">
         <v>46</v>
       </c>
       <c r="M48">
+        <f t="shared" si="2"/>
+        <v>292</v>
+      </c>
+      <c r="N48">
         <f t="shared" si="3"/>
-        <v>292</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="4"/>
         <v>1655</v>
       </c>
-      <c r="AA48">
-        <v>46</v>
-      </c>
-      <c r="AB48">
-        <v>8.5260000000000002E-2</v>
-      </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>8.7160000000000001E-2</v>
       </c>
@@ -12158,32 +9607,26 @@
         <v>47</v>
       </c>
       <c r="I49">
+        <f t="shared" si="0"/>
+        <v>8.7160000000000001E-2</v>
+      </c>
+      <c r="J49">
         <f t="shared" si="1"/>
-        <v>8.7160000000000001E-2</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="2"/>
         <v>1.97668</v>
       </c>
       <c r="L49">
         <v>47</v>
       </c>
       <c r="M49">
+        <f t="shared" si="2"/>
+        <v>305</v>
+      </c>
+      <c r="N49">
         <f t="shared" si="3"/>
-        <v>305</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="4"/>
         <v>1662</v>
       </c>
-      <c r="AA49">
-        <v>47</v>
-      </c>
-      <c r="AB49">
-        <v>8.5199999999999998E-2</v>
-      </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>8.2860000000000003E-2</v>
       </c>
@@ -12200,32 +9643,26 @@
         <v>48</v>
       </c>
       <c r="I50">
+        <f t="shared" si="0"/>
+        <v>8.2860000000000003E-2</v>
+      </c>
+      <c r="J50">
         <f t="shared" si="1"/>
-        <v>8.2860000000000003E-2</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="2"/>
         <v>1.9809300000000001</v>
       </c>
       <c r="L50">
         <v>48</v>
       </c>
       <c r="M50">
+        <f t="shared" si="2"/>
+        <v>278</v>
+      </c>
+      <c r="N50">
         <f t="shared" si="3"/>
-        <v>278</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="4"/>
         <v>1808</v>
       </c>
-      <c r="AA50">
-        <v>48</v>
-      </c>
-      <c r="AB50">
-        <v>8.5190000000000002E-2</v>
-      </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>8.4459999999999993E-2</v>
       </c>
@@ -12242,32 +9679,26 @@
         <v>49</v>
       </c>
       <c r="I51">
+        <f t="shared" si="0"/>
+        <v>8.4459999999999993E-2</v>
+      </c>
+      <c r="J51">
         <f t="shared" si="1"/>
-        <v>8.4459999999999993E-2</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="2"/>
         <v>2.0047899999999998</v>
       </c>
       <c r="L51">
         <v>49</v>
       </c>
       <c r="M51">
+        <f t="shared" si="2"/>
+        <v>308</v>
+      </c>
+      <c r="N51">
         <f t="shared" si="3"/>
-        <v>308</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="4"/>
         <v>1838</v>
       </c>
-      <c r="AA51">
-        <v>49</v>
-      </c>
-      <c r="AB51">
-        <v>8.5029999999999994E-2</v>
-      </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>9.2020000000000005E-2</v>
       </c>
@@ -12284,32 +9715,26 @@
         <v>50</v>
       </c>
       <c r="I52">
+        <f t="shared" si="0"/>
+        <v>9.2020000000000005E-2</v>
+      </c>
+      <c r="J52">
         <f t="shared" si="1"/>
-        <v>9.2020000000000005E-2</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="2"/>
         <v>2.0262500000000001</v>
       </c>
       <c r="L52">
         <v>50</v>
       </c>
       <c r="M52">
+        <f t="shared" si="2"/>
+        <v>301</v>
+      </c>
+      <c r="N52">
         <f t="shared" si="3"/>
-        <v>301</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="4"/>
         <v>1634</v>
       </c>
-      <c r="AA52">
-        <v>50</v>
-      </c>
-      <c r="AB52">
-        <v>8.5029999999999994E-2</v>
-      </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>8.5290000000000005E-2</v>
       </c>
@@ -12326,32 +9751,26 @@
         <v>51</v>
       </c>
       <c r="I53">
+        <f t="shared" si="0"/>
+        <v>8.5290000000000005E-2</v>
+      </c>
+      <c r="J53">
         <f t="shared" si="1"/>
-        <v>8.5290000000000005E-2</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="2"/>
         <v>1.97865</v>
       </c>
       <c r="L53">
         <v>51</v>
       </c>
       <c r="M53">
+        <f t="shared" si="2"/>
+        <v>303</v>
+      </c>
+      <c r="N53">
         <f t="shared" si="3"/>
-        <v>303</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="4"/>
         <v>1762</v>
       </c>
-      <c r="AA53">
-        <v>51</v>
-      </c>
-      <c r="AB53">
-        <v>8.5000000000000006E-2</v>
-      </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>8.5620000000000002E-2</v>
       </c>
@@ -12368,32 +9787,26 @@
         <v>52</v>
       </c>
       <c r="I54">
+        <f t="shared" si="0"/>
+        <v>8.5620000000000002E-2</v>
+      </c>
+      <c r="J54">
         <f t="shared" si="1"/>
-        <v>8.5620000000000002E-2</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="2"/>
         <v>2.0078399999999998</v>
       </c>
       <c r="L54">
         <v>52</v>
       </c>
       <c r="M54">
+        <f t="shared" si="2"/>
+        <v>293</v>
+      </c>
+      <c r="N54">
         <f t="shared" si="3"/>
-        <v>293</v>
-      </c>
-      <c r="N54">
-        <f t="shared" si="4"/>
         <v>1663</v>
       </c>
-      <c r="AA54">
-        <v>52</v>
-      </c>
-      <c r="AB54">
-        <v>8.5000000000000006E-2</v>
-      </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>8.6889999999999995E-2</v>
       </c>
@@ -12410,32 +9823,26 @@
         <v>53</v>
       </c>
       <c r="I55">
+        <f t="shared" si="0"/>
+        <v>8.6889999999999995E-2</v>
+      </c>
+      <c r="J55">
         <f t="shared" si="1"/>
-        <v>8.6889999999999995E-2</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="2"/>
         <v>2.02433</v>
       </c>
       <c r="L55">
         <v>53</v>
       </c>
       <c r="M55">
+        <f t="shared" si="2"/>
+        <v>324</v>
+      </c>
+      <c r="N55">
         <f t="shared" si="3"/>
-        <v>324</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="4"/>
         <v>1653</v>
       </c>
-      <c r="AA55">
-        <v>53</v>
-      </c>
-      <c r="AB55">
-        <v>8.4680000000000005E-2</v>
-      </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>8.2769999999999996E-2</v>
       </c>
@@ -12452,32 +9859,26 @@
         <v>54</v>
       </c>
       <c r="I56">
+        <f t="shared" si="0"/>
+        <v>8.2769999999999996E-2</v>
+      </c>
+      <c r="J56">
         <f t="shared" si="1"/>
-        <v>8.2769999999999996E-2</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="2"/>
         <v>1.95102</v>
       </c>
       <c r="L56">
         <v>54</v>
       </c>
       <c r="M56">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+      <c r="N56">
         <f t="shared" si="3"/>
-        <v>290</v>
-      </c>
-      <c r="N56">
-        <f t="shared" si="4"/>
         <v>1654</v>
       </c>
-      <c r="AA56">
-        <v>54</v>
-      </c>
-      <c r="AB56">
-        <v>8.4650000000000003E-2</v>
-      </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>8.6860000000000007E-2</v>
       </c>
@@ -12494,32 +9895,26 @@
         <v>55</v>
       </c>
       <c r="I57">
+        <f t="shared" si="0"/>
+        <v>8.6860000000000007E-2</v>
+      </c>
+      <c r="J57">
         <f t="shared" si="1"/>
-        <v>8.6860000000000007E-2</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="2"/>
         <v>1.95824</v>
       </c>
       <c r="L57">
         <v>55</v>
       </c>
       <c r="M57">
+        <f t="shared" si="2"/>
+        <v>299</v>
+      </c>
+      <c r="N57">
         <f t="shared" si="3"/>
-        <v>299</v>
-      </c>
-      <c r="N57">
-        <f t="shared" si="4"/>
         <v>1663</v>
       </c>
-      <c r="AA57">
-        <v>55</v>
-      </c>
-      <c r="AB57">
-        <v>8.455E-2</v>
-      </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>8.1350000000000006E-2</v>
       </c>
@@ -12536,32 +9931,26 @@
         <v>56</v>
       </c>
       <c r="I58">
+        <f t="shared" si="0"/>
+        <v>8.1350000000000006E-2</v>
+      </c>
+      <c r="J58">
         <f t="shared" si="1"/>
-        <v>8.1350000000000006E-2</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="2"/>
         <v>2.01111</v>
       </c>
       <c r="L58">
         <v>56</v>
       </c>
       <c r="M58">
+        <f t="shared" si="2"/>
+        <v>312</v>
+      </c>
+      <c r="N58">
         <f t="shared" si="3"/>
-        <v>312</v>
-      </c>
-      <c r="N58">
-        <f t="shared" si="4"/>
         <v>1713</v>
       </c>
-      <c r="AA58">
-        <v>56</v>
-      </c>
-      <c r="AB58">
-        <v>8.4459999999999993E-2</v>
-      </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>8.0930000000000002E-2</v>
       </c>
@@ -12578,32 +9967,26 @@
         <v>57</v>
       </c>
       <c r="I59">
+        <f t="shared" si="0"/>
+        <v>8.0930000000000002E-2</v>
+      </c>
+      <c r="J59">
         <f t="shared" si="1"/>
-        <v>8.0930000000000002E-2</v>
-      </c>
-      <c r="J59">
-        <f t="shared" si="2"/>
         <v>1.9859500000000001</v>
       </c>
       <c r="L59">
         <v>57</v>
       </c>
       <c r="M59">
+        <f t="shared" si="2"/>
+        <v>294</v>
+      </c>
+      <c r="N59">
         <f t="shared" si="3"/>
-        <v>294</v>
-      </c>
-      <c r="N59">
-        <f t="shared" si="4"/>
         <v>1613</v>
       </c>
-      <c r="AA59">
-        <v>57</v>
-      </c>
-      <c r="AB59">
-        <v>8.4440000000000001E-2</v>
-      </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>9.0620000000000006E-2</v>
       </c>
@@ -12620,32 +10003,26 @@
         <v>58</v>
       </c>
       <c r="I60">
+        <f t="shared" si="0"/>
+        <v>9.0620000000000006E-2</v>
+      </c>
+      <c r="J60">
         <f t="shared" si="1"/>
-        <v>9.0620000000000006E-2</v>
-      </c>
-      <c r="J60">
-        <f t="shared" si="2"/>
         <v>1.95648</v>
       </c>
       <c r="L60">
         <v>58</v>
       </c>
       <c r="M60">
+        <f t="shared" si="2"/>
+        <v>310</v>
+      </c>
+      <c r="N60">
         <f t="shared" si="3"/>
-        <v>310</v>
-      </c>
-      <c r="N60">
-        <f t="shared" si="4"/>
         <v>1642</v>
       </c>
-      <c r="AA60">
-        <v>58</v>
-      </c>
-      <c r="AB60">
-        <v>8.4400000000000003E-2</v>
-      </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>8.8429999999999995E-2</v>
       </c>
@@ -12662,32 +10039,26 @@
         <v>59</v>
       </c>
       <c r="I61">
+        <f t="shared" si="0"/>
+        <v>8.8429999999999995E-2</v>
+      </c>
+      <c r="J61">
         <f t="shared" si="1"/>
-        <v>8.8429999999999995E-2</v>
-      </c>
-      <c r="J61">
-        <f t="shared" si="2"/>
         <v>2.0045099999999998</v>
       </c>
       <c r="L61">
         <v>59</v>
       </c>
       <c r="M61">
+        <f t="shared" si="2"/>
+        <v>295</v>
+      </c>
+      <c r="N61">
         <f t="shared" si="3"/>
-        <v>295</v>
-      </c>
-      <c r="N61">
-        <f t="shared" si="4"/>
         <v>1716</v>
       </c>
-      <c r="AA61">
-        <v>59</v>
-      </c>
-      <c r="AB61">
-        <v>8.4080000000000002E-2</v>
-      </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>8.165E-2</v>
       </c>
@@ -12704,32 +10075,26 @@
         <v>60</v>
       </c>
       <c r="I62">
+        <f t="shared" si="0"/>
+        <v>8.165E-2</v>
+      </c>
+      <c r="J62">
         <f t="shared" si="1"/>
-        <v>8.165E-2</v>
-      </c>
-      <c r="J62">
-        <f t="shared" si="2"/>
         <v>2.04704</v>
       </c>
       <c r="L62">
         <v>60</v>
       </c>
       <c r="M62">
+        <f t="shared" si="2"/>
+        <v>301</v>
+      </c>
+      <c r="N62">
         <f t="shared" si="3"/>
-        <v>301</v>
-      </c>
-      <c r="N62">
-        <f t="shared" si="4"/>
         <v>1819</v>
       </c>
-      <c r="AA62">
-        <v>60</v>
-      </c>
-      <c r="AB62">
-        <v>8.4029999999999994E-2</v>
-      </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>8.9120000000000005E-2</v>
       </c>
@@ -12746,32 +10111,26 @@
         <v>61</v>
       </c>
       <c r="I63">
+        <f t="shared" si="0"/>
+        <v>8.9120000000000005E-2</v>
+      </c>
+      <c r="J63">
         <f t="shared" si="1"/>
-        <v>8.9120000000000005E-2</v>
-      </c>
-      <c r="J63">
-        <f t="shared" si="2"/>
         <v>1.92161</v>
       </c>
       <c r="L63">
         <v>61</v>
       </c>
       <c r="M63">
+        <f t="shared" si="2"/>
+        <v>284</v>
+      </c>
+      <c r="N63">
         <f t="shared" si="3"/>
-        <v>284</v>
-      </c>
-      <c r="N63">
-        <f t="shared" si="4"/>
         <v>1778</v>
       </c>
-      <c r="AA63">
-        <v>61</v>
-      </c>
-      <c r="AB63">
-        <v>8.4019999999999997E-2</v>
-      </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>8.4019999999999997E-2</v>
       </c>
@@ -12788,32 +10147,26 @@
         <v>62</v>
       </c>
       <c r="I64">
+        <f t="shared" si="0"/>
+        <v>8.4019999999999997E-2</v>
+      </c>
+      <c r="J64">
         <f t="shared" si="1"/>
-        <v>8.4019999999999997E-2</v>
-      </c>
-      <c r="J64">
-        <f t="shared" si="2"/>
         <v>2.0100500000000001</v>
       </c>
       <c r="L64">
         <v>62</v>
       </c>
       <c r="M64">
+        <f t="shared" si="2"/>
+        <v>289</v>
+      </c>
+      <c r="N64">
         <f t="shared" si="3"/>
-        <v>289</v>
-      </c>
-      <c r="N64">
-        <f t="shared" si="4"/>
         <v>1760</v>
       </c>
-      <c r="AA64">
-        <v>62</v>
-      </c>
-      <c r="AB64">
-        <v>8.4019999999999997E-2</v>
-      </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>8.2860000000000003E-2</v>
       </c>
@@ -12830,32 +10183,26 @@
         <v>63</v>
       </c>
       <c r="I65">
+        <f t="shared" si="0"/>
+        <v>8.2860000000000003E-2</v>
+      </c>
+      <c r="J65">
         <f t="shared" si="1"/>
-        <v>8.2860000000000003E-2</v>
-      </c>
-      <c r="J65">
-        <f t="shared" si="2"/>
         <v>2.0862699999999998</v>
       </c>
       <c r="L65">
         <v>63</v>
       </c>
       <c r="M65">
+        <f t="shared" si="2"/>
+        <v>340</v>
+      </c>
+      <c r="N65">
         <f t="shared" si="3"/>
-        <v>340</v>
-      </c>
-      <c r="N65">
-        <f t="shared" si="4"/>
         <v>1874</v>
       </c>
-      <c r="AA65">
-        <v>63</v>
-      </c>
-      <c r="AB65">
-        <v>8.3739999999999995E-2</v>
-      </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>8.1079999999999999E-2</v>
       </c>
@@ -12872,32 +10219,26 @@
         <v>64</v>
       </c>
       <c r="I66">
+        <f t="shared" si="0"/>
+        <v>8.1079999999999999E-2</v>
+      </c>
+      <c r="J66">
         <f t="shared" si="1"/>
-        <v>8.1079999999999999E-2</v>
-      </c>
-      <c r="J66">
-        <f t="shared" si="2"/>
         <v>2.0386199999999999</v>
       </c>
       <c r="L66">
         <v>64</v>
       </c>
       <c r="M66">
+        <f t="shared" si="2"/>
+        <v>279</v>
+      </c>
+      <c r="N66">
         <f t="shared" si="3"/>
-        <v>279</v>
-      </c>
-      <c r="N66">
-        <f t="shared" si="4"/>
         <v>1676</v>
       </c>
-      <c r="AA66">
-        <v>64</v>
-      </c>
-      <c r="AB66">
-        <v>8.3599999999999994E-2</v>
-      </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>8.695E-2</v>
       </c>
@@ -12914,32 +10255,26 @@
         <v>65</v>
       </c>
       <c r="I67">
+        <f t="shared" si="0"/>
+        <v>8.695E-2</v>
+      </c>
+      <c r="J67">
         <f t="shared" si="1"/>
-        <v>8.695E-2</v>
-      </c>
-      <c r="J67">
-        <f t="shared" si="2"/>
         <v>1.9744699999999999</v>
       </c>
       <c r="L67">
         <v>65</v>
       </c>
       <c r="M67">
+        <f t="shared" si="2"/>
+        <v>293</v>
+      </c>
+      <c r="N67">
         <f t="shared" si="3"/>
-        <v>293</v>
-      </c>
-      <c r="N67">
-        <f t="shared" si="4"/>
         <v>1755</v>
       </c>
-      <c r="AA67">
-        <v>65</v>
-      </c>
-      <c r="AB67">
-        <v>8.3559999999999995E-2</v>
-      </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>8.2379999999999995E-2</v>
       </c>
@@ -12956,32 +10291,26 @@
         <v>66</v>
       </c>
       <c r="I68">
-        <f t="shared" ref="I68:I102" si="10">A68</f>
+        <f t="shared" ref="I68:I102" si="4">A68</f>
         <v>8.2379999999999995E-2</v>
       </c>
       <c r="J68">
-        <f t="shared" ref="J68:J102" si="11">D68</f>
+        <f t="shared" ref="J68:J102" si="5">D68</f>
         <v>2.0372599999999998</v>
       </c>
       <c r="L68">
         <v>66</v>
       </c>
       <c r="M68">
-        <f t="shared" ref="M68:M102" si="12">B68</f>
+        <f t="shared" ref="M68:M102" si="6">B68</f>
         <v>291</v>
       </c>
       <c r="N68">
-        <f t="shared" ref="N68:N102" si="13">E68</f>
+        <f t="shared" ref="N68:N102" si="7">E68</f>
         <v>1685</v>
       </c>
-      <c r="AA68">
-        <v>66</v>
-      </c>
-      <c r="AB68">
-        <v>8.3559999999999995E-2</v>
-      </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>7.9409999999999994E-2</v>
       </c>
@@ -12998,32 +10327,26 @@
         <v>67</v>
       </c>
       <c r="I69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>7.9409999999999994E-2</v>
       </c>
       <c r="J69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.0368900000000001</v>
       </c>
       <c r="L69">
         <v>67</v>
       </c>
       <c r="M69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>292</v>
       </c>
       <c r="N69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1839</v>
       </c>
-      <c r="AA69">
-        <v>67</v>
-      </c>
-      <c r="AB69">
-        <v>8.3460000000000006E-2</v>
-      </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>8.3169999999999994E-2</v>
       </c>
@@ -13040,32 +10363,26 @@
         <v>68</v>
       </c>
       <c r="I70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.3169999999999994E-2</v>
       </c>
       <c r="J70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1.94279</v>
       </c>
       <c r="L70">
         <v>68</v>
       </c>
       <c r="M70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>278</v>
       </c>
       <c r="N70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1756</v>
       </c>
-      <c r="AA70">
-        <v>68</v>
-      </c>
-      <c r="AB70">
-        <v>8.3349999999999994E-2</v>
-      </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>8.2729999999999998E-2</v>
       </c>
@@ -13082,32 +10399,26 @@
         <v>69</v>
       </c>
       <c r="I71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.2729999999999998E-2</v>
       </c>
       <c r="J71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.0341300000000002</v>
       </c>
       <c r="L71">
         <v>69</v>
       </c>
       <c r="M71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>276</v>
       </c>
       <c r="N71">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1698</v>
       </c>
-      <c r="AA71">
-        <v>69</v>
-      </c>
-      <c r="AB71">
-        <v>8.3299999999999999E-2</v>
-      </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>8.3150000000000002E-2</v>
       </c>
@@ -13124,32 +10435,26 @@
         <v>70</v>
       </c>
       <c r="I72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.3150000000000002E-2</v>
       </c>
       <c r="J72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.13856</v>
       </c>
       <c r="L72">
         <v>70</v>
       </c>
       <c r="M72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>318</v>
       </c>
       <c r="N72">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>2023</v>
       </c>
-      <c r="AA72">
-        <v>70</v>
-      </c>
-      <c r="AB72">
-        <v>8.3220000000000002E-2</v>
-      </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>8.541E-2</v>
       </c>
@@ -13166,32 +10471,26 @@
         <v>71</v>
       </c>
       <c r="I73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.541E-2</v>
       </c>
       <c r="J73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.00284</v>
       </c>
       <c r="L73">
         <v>71</v>
       </c>
       <c r="M73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>295</v>
       </c>
       <c r="N73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1812</v>
       </c>
-      <c r="AA73">
-        <v>71</v>
-      </c>
-      <c r="AB73">
-        <v>8.3180000000000004E-2</v>
-      </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.10113999999999999</v>
       </c>
@@ -13208,32 +10507,26 @@
         <v>72</v>
       </c>
       <c r="I74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0.10113999999999999</v>
       </c>
       <c r="J74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.05985</v>
       </c>
       <c r="L74">
         <v>72</v>
       </c>
       <c r="M74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>324</v>
       </c>
       <c r="N74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1829</v>
       </c>
-      <c r="AA74">
-        <v>72</v>
-      </c>
-      <c r="AB74">
-        <v>8.3169999999999994E-2</v>
-      </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>8.7859999999999994E-2</v>
       </c>
@@ -13250,32 +10543,26 @@
         <v>73</v>
       </c>
       <c r="I75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.7859999999999994E-2</v>
       </c>
       <c r="J75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.0081000000000002</v>
       </c>
       <c r="L75">
         <v>73</v>
       </c>
       <c r="M75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>314</v>
       </c>
       <c r="N75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1716</v>
       </c>
-      <c r="AA75">
-        <v>73</v>
-      </c>
-      <c r="AB75">
-        <v>8.3150000000000002E-2</v>
-      </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>8.0399999999999999E-2</v>
       </c>
@@ -13292,32 +10579,26 @@
         <v>74</v>
       </c>
       <c r="I76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.0399999999999999E-2</v>
       </c>
       <c r="J76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.05281</v>
       </c>
       <c r="L76">
         <v>74</v>
       </c>
       <c r="M76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>327</v>
       </c>
       <c r="N76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1787</v>
       </c>
-      <c r="AA76">
-        <v>74</v>
-      </c>
-      <c r="AB76">
-        <v>8.3089999999999997E-2</v>
-      </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>8.5000000000000006E-2</v>
       </c>
@@ -13334,32 +10615,26 @@
         <v>75</v>
       </c>
       <c r="I77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="J77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.1072500000000001</v>
       </c>
       <c r="L77">
         <v>75</v>
       </c>
       <c r="M77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>299</v>
       </c>
       <c r="N77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1843</v>
       </c>
-      <c r="AA77">
-        <v>75</v>
-      </c>
-      <c r="AB77">
-        <v>8.3049999999999999E-2</v>
-      </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>8.5199999999999998E-2</v>
       </c>
@@ -13376,32 +10651,26 @@
         <v>76</v>
       </c>
       <c r="I78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.5199999999999998E-2</v>
       </c>
       <c r="J78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.01397</v>
       </c>
       <c r="L78">
         <v>76</v>
       </c>
       <c r="M78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>301</v>
       </c>
       <c r="N78">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1738</v>
       </c>
-      <c r="AA78">
-        <v>76</v>
-      </c>
-      <c r="AB78">
-        <v>8.2860000000000003E-2</v>
-      </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>8.7940000000000004E-2</v>
       </c>
@@ -13418,32 +10687,26 @@
         <v>77</v>
       </c>
       <c r="I79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.7940000000000004E-2</v>
       </c>
       <c r="J79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.0649999999999999</v>
       </c>
       <c r="L79">
         <v>77</v>
       </c>
       <c r="M79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="N79">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1793</v>
       </c>
-      <c r="AA79">
-        <v>77</v>
-      </c>
-      <c r="AB79">
-        <v>8.2860000000000003E-2</v>
-      </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>8.1670000000000006E-2</v>
       </c>
@@ -13460,32 +10723,26 @@
         <v>78</v>
       </c>
       <c r="I80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.1670000000000006E-2</v>
       </c>
       <c r="J80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.0074999999999998</v>
       </c>
       <c r="L80">
         <v>78</v>
       </c>
       <c r="M80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>277</v>
       </c>
       <c r="N80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1803</v>
       </c>
-      <c r="AA80">
-        <v>78</v>
-      </c>
-      <c r="AB80">
-        <v>8.2769999999999996E-2</v>
-      </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>8.5260000000000002E-2</v>
       </c>
@@ -13502,32 +10759,26 @@
         <v>79</v>
       </c>
       <c r="I81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.5260000000000002E-2</v>
       </c>
       <c r="J81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.12812</v>
       </c>
       <c r="L81">
         <v>79</v>
       </c>
       <c r="M81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>292</v>
       </c>
       <c r="N81">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1795</v>
       </c>
-      <c r="AA81">
-        <v>79</v>
-      </c>
-      <c r="AB81">
-        <v>8.2729999999999998E-2</v>
-      </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>8.1439999999999999E-2</v>
       </c>
@@ -13544,32 +10795,26 @@
         <v>80</v>
       </c>
       <c r="I82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.1439999999999999E-2</v>
       </c>
       <c r="J82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.15056</v>
       </c>
       <c r="L82">
         <v>80</v>
       </c>
       <c r="M82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>304</v>
       </c>
       <c r="N82">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1800</v>
       </c>
-      <c r="AA82">
-        <v>80</v>
-      </c>
-      <c r="AB82">
-        <v>8.2699999999999996E-2</v>
-      </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>9.1859999999999997E-2</v>
       </c>
@@ -13586,32 +10831,26 @@
         <v>81</v>
       </c>
       <c r="I83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>9.1859999999999997E-2</v>
       </c>
       <c r="J83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.0722200000000002</v>
       </c>
       <c r="L83">
         <v>81</v>
       </c>
       <c r="M83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>308</v>
       </c>
       <c r="N83">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1769</v>
       </c>
-      <c r="AA83">
-        <v>81</v>
-      </c>
-      <c r="AB83">
-        <v>8.2379999999999995E-2</v>
-      </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>8.6669999999999997E-2</v>
       </c>
@@ -13628,32 +10867,26 @@
         <v>82</v>
       </c>
       <c r="I84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.6669999999999997E-2</v>
       </c>
       <c r="J84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.1160999999999999</v>
       </c>
       <c r="L84">
         <v>82</v>
       </c>
       <c r="M84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>277</v>
       </c>
       <c r="N84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1795</v>
       </c>
-      <c r="AA84">
-        <v>82</v>
-      </c>
-      <c r="AB84">
-        <v>8.2000000000000003E-2</v>
-      </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>8.1220000000000001E-2</v>
       </c>
@@ -13670,32 +10903,26 @@
         <v>83</v>
       </c>
       <c r="I85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.1220000000000001E-2</v>
       </c>
       <c r="J85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.0520299999999998</v>
       </c>
       <c r="L85">
         <v>83</v>
       </c>
       <c r="M85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>270</v>
       </c>
       <c r="N85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1734</v>
       </c>
-      <c r="AA85">
-        <v>83</v>
-      </c>
-      <c r="AB85">
-        <v>8.1979999999999997E-2</v>
-      </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>8.5190000000000002E-2</v>
       </c>
@@ -13712,32 +10939,26 @@
         <v>84</v>
       </c>
       <c r="I86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.5190000000000002E-2</v>
       </c>
       <c r="J86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.0545499999999999</v>
       </c>
       <c r="L86">
         <v>84</v>
       </c>
       <c r="M86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>271</v>
       </c>
       <c r="N86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1865</v>
       </c>
-      <c r="AA86">
-        <v>84</v>
-      </c>
-      <c r="AB86">
-        <v>8.1720000000000001E-2</v>
-      </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>8.5739999999999997E-2</v>
       </c>
@@ -13754,32 +10975,26 @@
         <v>85</v>
       </c>
       <c r="I87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.5739999999999997E-2</v>
       </c>
       <c r="J87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.05633</v>
       </c>
       <c r="L87">
         <v>85</v>
       </c>
       <c r="M87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>299</v>
       </c>
       <c r="N87">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1727</v>
       </c>
-      <c r="AA87">
-        <v>85</v>
-      </c>
-      <c r="AB87">
-        <v>8.1670000000000006E-2</v>
-      </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>8.3049999999999999E-2</v>
       </c>
@@ -13796,32 +11011,26 @@
         <v>86</v>
       </c>
       <c r="I88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.3049999999999999E-2</v>
       </c>
       <c r="J88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.0647899999999999</v>
       </c>
       <c r="L88">
         <v>86</v>
       </c>
       <c r="M88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>288</v>
       </c>
       <c r="N88">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1965</v>
       </c>
-      <c r="AA88">
-        <v>86</v>
-      </c>
-      <c r="AB88">
-        <v>8.165E-2</v>
-      </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>8.6919999999999997E-2</v>
       </c>
@@ -13838,32 +11047,26 @@
         <v>87</v>
       </c>
       <c r="I89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.6919999999999997E-2</v>
       </c>
       <c r="J89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.1171700000000002</v>
       </c>
       <c r="L89">
         <v>87</v>
       </c>
       <c r="M89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>295</v>
       </c>
       <c r="N89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1757</v>
       </c>
-      <c r="AA89">
-        <v>87</v>
-      </c>
-      <c r="AB89">
-        <v>8.1610000000000002E-2</v>
-      </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>8.5279999999999995E-2</v>
       </c>
@@ -13880,32 +11083,26 @@
         <v>88</v>
       </c>
       <c r="I90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.5279999999999995E-2</v>
       </c>
       <c r="J90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.1076000000000001</v>
       </c>
       <c r="L90">
         <v>88</v>
       </c>
       <c r="M90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>297</v>
       </c>
       <c r="N90">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1750</v>
       </c>
-      <c r="AA90">
-        <v>88</v>
-      </c>
-      <c r="AB90">
-        <v>8.1470000000000001E-2</v>
-      </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>8.2699999999999996E-2</v>
       </c>
@@ -13922,32 +11119,26 @@
         <v>89</v>
       </c>
       <c r="I91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.2699999999999996E-2</v>
       </c>
       <c r="J91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.1312899999999999</v>
       </c>
       <c r="L91">
         <v>89</v>
       </c>
       <c r="M91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>316</v>
       </c>
       <c r="N91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1726</v>
       </c>
-      <c r="AA91">
-        <v>89</v>
-      </c>
-      <c r="AB91">
-        <v>8.1439999999999999E-2</v>
-      </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>8.2000000000000003E-2</v>
       </c>
@@ -13964,32 +11155,26 @@
         <v>90</v>
       </c>
       <c r="I92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="J92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.0987300000000002</v>
       </c>
       <c r="L92">
         <v>90</v>
       </c>
       <c r="M92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>311</v>
       </c>
       <c r="N92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1751</v>
       </c>
-      <c r="AA92">
-        <v>90</v>
-      </c>
-      <c r="AB92">
-        <v>8.14E-2</v>
-      </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>8.6029999999999995E-2</v>
       </c>
@@ -14006,32 +11191,26 @@
         <v>91</v>
       </c>
       <c r="I93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.6029999999999995E-2</v>
       </c>
       <c r="J93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.0298699999999998</v>
       </c>
       <c r="L93">
         <v>91</v>
       </c>
       <c r="M93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>321</v>
       </c>
       <c r="N93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1710</v>
       </c>
-      <c r="AA93">
-        <v>91</v>
-      </c>
-      <c r="AB93">
-        <v>8.1350000000000006E-2</v>
-      </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>8.5930000000000006E-2</v>
       </c>
@@ -14048,32 +11227,26 @@
         <v>92</v>
       </c>
       <c r="I94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.5930000000000006E-2</v>
       </c>
       <c r="J94">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.06569</v>
       </c>
       <c r="L94">
         <v>92</v>
       </c>
       <c r="M94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>315</v>
       </c>
       <c r="N94">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1930</v>
       </c>
-      <c r="AA94">
-        <v>92</v>
-      </c>
-      <c r="AB94">
-        <v>8.1220000000000001E-2</v>
-      </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>8.3599999999999994E-2</v>
       </c>
@@ -14090,32 +11263,26 @@
         <v>93</v>
       </c>
       <c r="I95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.3599999999999994E-2</v>
       </c>
       <c r="J95">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.1240299999999999</v>
       </c>
       <c r="L95">
         <v>93</v>
       </c>
       <c r="M95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>275</v>
       </c>
       <c r="N95">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1744</v>
       </c>
-      <c r="AA95">
-        <v>93</v>
-      </c>
-      <c r="AB95">
-        <v>8.1079999999999999E-2</v>
-      </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>8.4019999999999997E-2</v>
       </c>
@@ -14132,32 +11299,26 @@
         <v>94</v>
       </c>
       <c r="I96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.4019999999999997E-2</v>
       </c>
       <c r="J96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.0493199999999998</v>
       </c>
       <c r="L96">
         <v>94</v>
       </c>
       <c r="M96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>289</v>
       </c>
       <c r="N96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1730</v>
       </c>
-      <c r="AA96">
-        <v>94</v>
-      </c>
-      <c r="AB96">
-        <v>8.0930000000000002E-2</v>
-      </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>8.5889999999999994E-2</v>
       </c>
@@ -14174,32 +11335,26 @@
         <v>95</v>
       </c>
       <c r="I97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.5889999999999994E-2</v>
       </c>
       <c r="J97">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.0907300000000002</v>
       </c>
       <c r="L97">
         <v>95</v>
       </c>
       <c r="M97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>289</v>
       </c>
       <c r="N97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1892</v>
       </c>
-      <c r="AA97">
-        <v>95</v>
-      </c>
-      <c r="AB97">
-        <v>8.0879999999999994E-2</v>
-      </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>9.2829999999999996E-2</v>
       </c>
@@ -14216,32 +11371,26 @@
         <v>96</v>
       </c>
       <c r="I98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>9.2829999999999996E-2</v>
       </c>
       <c r="J98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.1105</v>
       </c>
       <c r="L98">
         <v>96</v>
       </c>
       <c r="M98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>359</v>
       </c>
       <c r="N98">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1805</v>
       </c>
-      <c r="AA98">
-        <v>96</v>
-      </c>
-      <c r="AB98">
-        <v>8.0799999999999997E-2</v>
-      </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>8.4440000000000001E-2</v>
       </c>
@@ -14258,32 +11407,26 @@
         <v>97</v>
       </c>
       <c r="I99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.4440000000000001E-2</v>
       </c>
       <c r="J99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.0745499999999999</v>
       </c>
       <c r="L99">
         <v>97</v>
       </c>
       <c r="M99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>323</v>
       </c>
       <c r="N99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1757</v>
       </c>
-      <c r="AA99">
-        <v>97</v>
-      </c>
-      <c r="AB99">
-        <v>8.0399999999999999E-2</v>
-      </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>8.1720000000000001E-2</v>
       </c>
@@ -14300,32 +11443,26 @@
         <v>98</v>
       </c>
       <c r="I100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.1720000000000001E-2</v>
       </c>
       <c r="J100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.0539000000000001</v>
       </c>
       <c r="L100">
         <v>98</v>
       </c>
       <c r="M100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>329</v>
       </c>
       <c r="N100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1694</v>
       </c>
-      <c r="AA100">
-        <v>98</v>
-      </c>
-      <c r="AB100">
-        <v>8.0369999999999997E-2</v>
-      </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>8.1610000000000002E-2</v>
       </c>
@@ -14342,32 +11479,26 @@
         <v>99</v>
       </c>
       <c r="I101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.1610000000000002E-2</v>
       </c>
       <c r="J101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.0656099999999999</v>
       </c>
       <c r="L101">
         <v>99</v>
       </c>
       <c r="M101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>286</v>
       </c>
       <c r="N101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1869</v>
       </c>
-      <c r="AA101">
-        <v>99</v>
-      </c>
-      <c r="AB101">
-        <v>7.9930000000000001E-2</v>
-      </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>8.3220000000000002E-2</v>
       </c>
@@ -14384,29 +11515,23 @@
         <v>100</v>
       </c>
       <c r="I102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>8.3220000000000002E-2</v>
       </c>
       <c r="J102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>2.1297000000000001</v>
       </c>
       <c r="L102">
         <v>100</v>
       </c>
       <c r="M102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>269</v>
       </c>
       <c r="N102">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1756</v>
-      </c>
-      <c r="AA102">
-        <v>100</v>
-      </c>
-      <c r="AB102">
-        <v>7.9409999999999994E-2</v>
       </c>
     </row>
   </sheetData>
@@ -14419,826 +11544,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BED14A-0CBF-0A45-8FEE-8FC58A66287E}">
-  <dimension ref="A1:E100"/>
-  <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>1.8462499999999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1.85883</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1.87375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1.89432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1.9144699999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>1.92161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>1.9219599999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>1.9253100000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>1.9352799999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>1.94279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>1.9441299999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>1.94591</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>1.9495400000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>1.95102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>1.95648</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>1.95824</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>1.96218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>1.96593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>1.9716499999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>1.9719199999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>1.97298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>1.9744699999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <v>1.9747600000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>1.97668</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>1.97817</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>1.97865</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>1.97915</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <v>1.97987</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>1.9809300000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>1.98282</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>1.9859500000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <v>1.98698</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="B33">
-        <v>1.9875499999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="B34">
-        <v>1.9938800000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>1.99824</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>2.00284</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <v>2.0045099999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>2.0047899999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>2.00502</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>2.0053399999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>41</v>
-      </c>
-      <c r="B41">
-        <v>2.0074999999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>42</v>
-      </c>
-      <c r="B42">
-        <v>2.0078399999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>43</v>
-      </c>
-      <c r="B43">
-        <v>2.0081000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>44</v>
-      </c>
-      <c r="B44">
-        <v>2.0085299999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>45</v>
-      </c>
-      <c r="B45">
-        <v>2.00929</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>46</v>
-      </c>
-      <c r="B46">
-        <v>2.0100500000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>47</v>
-      </c>
-      <c r="B47">
-        <v>2.01111</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>48</v>
-      </c>
-      <c r="B48">
-        <v>2.0132500000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>49</v>
-      </c>
-      <c r="B49">
-        <v>2.0137299999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>50</v>
-      </c>
-      <c r="B50">
-        <v>2.01397</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>51</v>
-      </c>
-      <c r="B51">
-        <v>2.0184099999999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>52</v>
-      </c>
-      <c r="B52">
-        <v>2.0191599999999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>53</v>
-      </c>
-      <c r="B53">
-        <v>2.01919</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>54</v>
-      </c>
-      <c r="B54">
-        <v>2.0210699999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>55</v>
-      </c>
-      <c r="B55">
-        <v>2.0228899999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>56</v>
-      </c>
-      <c r="B56">
-        <v>2.0241899999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <v>2.02433</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>58</v>
-      </c>
-      <c r="B58">
-        <v>2.0262500000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>59</v>
-      </c>
-      <c r="B59">
-        <v>2.0298699999999998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>60</v>
-      </c>
-      <c r="B60">
-        <v>2.0308700000000002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>61</v>
-      </c>
-      <c r="B61">
-        <v>2.0325700000000002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>62</v>
-      </c>
-      <c r="B62">
-        <v>2.0341300000000002</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>63</v>
-      </c>
-      <c r="B63">
-        <v>2.0368900000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>64</v>
-      </c>
-      <c r="B64">
-        <v>2.0372599999999998</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>65</v>
-      </c>
-      <c r="B65">
-        <v>2.0386199999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>66</v>
-      </c>
-      <c r="B66">
-        <v>2.04704</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>67</v>
-      </c>
-      <c r="B67">
-        <v>2.0493199999999998</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>68</v>
-      </c>
-      <c r="B68">
-        <v>2.0520299999999998</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>69</v>
-      </c>
-      <c r="B69">
-        <v>2.05281</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>70</v>
-      </c>
-      <c r="B70">
-        <v>2.0539000000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>71</v>
-      </c>
-      <c r="B71">
-        <v>2.0545499999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>72</v>
-      </c>
-      <c r="B72">
-        <v>2.05633</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>73</v>
-      </c>
-      <c r="B73">
-        <v>2.0570300000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>74</v>
-      </c>
-      <c r="B74">
-        <v>2.0589900000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>75</v>
-      </c>
-      <c r="B75">
-        <v>2.05985</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>76</v>
-      </c>
-      <c r="B76">
-        <v>2.0647899999999999</v>
-      </c>
-      <c r="E76">
-        <f>(B75+B76)/2</f>
-        <v>2.0623199999999997</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>77</v>
-      </c>
-      <c r="B77">
-        <v>2.0649999999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>78</v>
-      </c>
-      <c r="B78">
-        <v>2.0656099999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>79</v>
-      </c>
-      <c r="B79">
-        <v>2.06569</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>80</v>
-      </c>
-      <c r="B80">
-        <v>2.0722200000000002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>81</v>
-      </c>
-      <c r="B81">
-        <v>2.07233</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>82</v>
-      </c>
-      <c r="B82">
-        <v>2.0745499999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>83</v>
-      </c>
-      <c r="B83">
-        <v>2.0862699999999998</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>84</v>
-      </c>
-      <c r="B84">
-        <v>2.0907300000000002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>85</v>
-      </c>
-      <c r="B85">
-        <v>2.0924200000000002</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>86</v>
-      </c>
-      <c r="B86">
-        <v>2.0987300000000002</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>87</v>
-      </c>
-      <c r="B87">
-        <v>2.1072500000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>88</v>
-      </c>
-      <c r="B88">
-        <v>2.1076000000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>89</v>
-      </c>
-      <c r="B89">
-        <v>2.1086399999999998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>90</v>
-      </c>
-      <c r="B90">
-        <v>2.1105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>91</v>
-      </c>
-      <c r="B91">
-        <v>2.1154700000000002</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>92</v>
-      </c>
-      <c r="B92">
-        <v>2.1160999999999999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>93</v>
-      </c>
-      <c r="B93">
-        <v>2.1171700000000002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>94</v>
-      </c>
-      <c r="B94">
-        <v>2.1240299999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>95</v>
-      </c>
-      <c r="B95">
-        <v>2.12812</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>96</v>
-      </c>
-      <c r="B96">
-        <v>2.1297000000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>97</v>
-      </c>
-      <c r="B97">
-        <v>2.1312899999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>98</v>
-      </c>
-      <c r="B98">
-        <v>2.13856</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>99</v>
-      </c>
-      <c r="B99">
-        <v>2.15056</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>100</v>
-      </c>
-      <c r="B100">
-        <v>2.24966</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:B101">
-    <sortCondition ref="B1:B101"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>